--- a/output/xlsx/RF012 - Ajuda--GT-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--GT-.xlsx
@@ -92,6 +92,51 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>A Ajuda e apresentada com sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (portfolio) a partir do menu inicial</t>
   </si>
   <si>
@@ -99,51 +144,6 @@
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Competencias (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>A Ajuda e apresentada com sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/RF012 - Ajuda--GT-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--GT-.xlsx
@@ -92,6 +92,39 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>A Ajuda e apresentada com sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
   </si>
   <si>
@@ -99,39 +132,6 @@
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>A Ajuda e apresentada com sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/RF012 - Ajuda--GT-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--GT-.xlsx
@@ -92,6 +92,39 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>A Ajuda e apresentada com sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Competencias (portfolio)</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
   </si>
   <si>
@@ -101,16 +134,7 @@
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
   </si>
   <si>
-    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>A Ajuda e apresentada com sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
@@ -120,30 +144,6 @@
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Competencias (portfolio)</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/RF012 - Ajuda--GT-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--GT-.xlsx
@@ -140,7 +140,7 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>

--- a/output/xlsx/RF012 - Ajuda--GT-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--GT-.xlsx
@@ -92,6 +92,51 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Competencias (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>A Ajuda e apresentada com sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
   </si>
   <si>
@@ -99,51 +144,6 @@
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Periodos Avaliativos</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta um painel lateral com a ajuda contextual, dividido em quatro partes:     'Glossario', 'Funcionalidades', 'Validacoes' e 'Permissoes do Usuario'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>A Ajuda e apresentada com sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Competencias (portfolio)</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Avaliacoes a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Avaliacoes</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
   </si>
   <si>
     <t>TC5</t>
